--- a/Data_Profiling/Data Profile.xlsx
+++ b/Data_Profiling/Data Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\CourseWork\Information Architecture\IA-Final\Data_Profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0793625A-E836-4B93-8D9B-CD2183A7EB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE3BFA-1378-4170-B757-83CA684957E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Citibike Data Profile" sheetId="8" r:id="rId1"/>
@@ -1196,6 +1196,33 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,33 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3110,7 +3110,7 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3126,10 +3126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -3151,7 +3151,7 @@
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="20">
         <v>24941</v>
       </c>
     </row>
@@ -3180,20 +3180,20 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -3228,21 +3228,21 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="23">
         <v>24941</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="9">
         <v>24941</v>
       </c>
@@ -3263,23 +3263,23 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="23">
         <v>2</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="26" t="s">
         <v>253</v>
       </c>
       <c r="H16" s="9">
@@ -3302,23 +3302,23 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="9">
         <v>0</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="23">
         <v>24650</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="9"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -3337,23 +3337,23 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="23">
         <v>24691</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="9"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -3372,25 +3372,25 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" ht="108" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="25" t="s">
         <v>252</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="23">
         <v>9</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="27" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="9">
@@ -3413,23 +3413,23 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="23">
         <v>9</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="23">
         <v>7079.06</v>
       </c>
       <c r="H20" s="9">
@@ -3452,23 +3452,23 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="23">
         <v>713</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="9"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -3487,23 +3487,23 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="23">
         <v>710</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="23">
         <v>7141.07</v>
       </c>
       <c r="H22" s="9">
@@ -3526,23 +3526,23 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="23">
         <v>11507</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="9"/>
       <c r="I23" s="14">
         <v>40.783557000000002</v>
@@ -3565,23 +3565,23 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="23">
         <v>11547</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="9"/>
       <c r="I24" s="14">
         <v>-73.970545000000001</v>
@@ -3604,23 +3604,23 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="23">
         <v>723</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="9"/>
       <c r="I25" s="14">
         <v>40.776333000000001</v>
@@ -3643,23 +3643,23 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="9">
         <v>0</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="23">
         <v>724</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="9"/>
       <c r="I26" s="14">
         <v>-73.970586999999995</v>
@@ -3682,23 +3682,23 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="23">
         <v>2</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="23" t="s">
         <v>184</v>
       </c>
       <c r="H27" s="9"/>
@@ -3853,12 +3853,12 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -4491,8 +4491,8 @@
   </sheetPr>
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4507,10 +4507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4561,20 +4561,20 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -4589,7 +4589,7 @@
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="28" t="s">
         <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -4609,31 +4609,29 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="23">
         <v>1</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="23" t="s">
         <v>187</v>
       </c>
       <c r="H15" s="9">
         <v>744</v>
       </c>
-      <c r="I15" s="14">
-        <v>17</v>
-      </c>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -4650,23 +4648,23 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="23">
         <v>744</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="9"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4685,23 +4683,23 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="9">
         <v>0</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="23">
         <v>83</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="9"/>
       <c r="I17" s="14">
         <v>7.0309140000000001</v>
@@ -4724,23 +4722,23 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="23">
         <v>143</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="9"/>
       <c r="I18" s="14">
         <v>5.3283601999999997</v>
@@ -4763,23 +4761,23 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="9">
         <v>0</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="23">
         <v>133</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="9"/>
       <c r="I19" s="14">
         <v>1.4446237</v>
@@ -4802,23 +4800,23 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="23">
         <v>647</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="9"/>
       <c r="I20" s="14">
         <v>69.404623999999998</v>
@@ -4841,23 +4839,23 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="23">
         <v>66</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="9"/>
       <c r="I21" s="14">
         <v>1.2908602E-2</v>
@@ -4880,23 +4878,23 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="23">
         <v>0</v>
       </c>
       <c r="H22" s="9">
@@ -4919,23 +4917,23 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="9">
         <v>87.4</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="23">
         <v>1</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="23" t="s">
         <v>205</v>
       </c>
       <c r="H23" s="9">
@@ -4958,23 +4956,23 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="23">
         <v>0</v>
       </c>
       <c r="H24" s="9">
@@ -4997,23 +4995,23 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="23">
         <v>1</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="9"/>
       <c r="I25" s="14">
         <v>0</v>
@@ -5036,23 +5034,23 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="9">
         <v>0</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="23">
         <v>126</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="9"/>
       <c r="I26" s="14">
         <v>26.186022000000001</v>
@@ -5075,23 +5073,23 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="23">
         <v>174</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="9"/>
       <c r="I27" s="14">
         <v>10.898253</v>
@@ -5114,23 +5112,23 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="23">
         <v>186</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="9"/>
       <c r="I28" s="14">
         <v>187.65188000000001</v>
@@ -5153,23 +5151,23 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="23">
         <v>291</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="9"/>
       <c r="I29" s="14">
         <v>1019.9276</v>
@@ -5192,23 +5190,23 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="9">
         <v>0</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="23">
         <v>75</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="9"/>
       <c r="I30" s="14">
         <v>54.752687999999999</v>
@@ -5231,23 +5229,23 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="9">
         <v>0</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="23">
         <v>58</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="9"/>
       <c r="I31" s="14">
         <v>14.539650999999999</v>
@@ -5270,23 +5268,23 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="9">
         <v>0</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="23">
         <v>170</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="9"/>
       <c r="I32" s="14">
         <v>62.255375999999998</v>
@@ -5309,23 +5307,23 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="9">
         <v>0</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="23">
         <v>22</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="9"/>
       <c r="I33" s="14">
         <v>0.22432795999999999</v>
@@ -5348,23 +5346,23 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="9">
         <v>0</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="23">
         <v>7</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="9"/>
       <c r="I34" s="14">
         <v>0.61021504999999998</v>
@@ -5387,23 +5385,23 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="9">
         <v>0</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="23">
         <v>2</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="23">
         <v>10</v>
       </c>
       <c r="H35" s="9">
@@ -5426,23 +5424,23 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="23">
         <v>6</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="23" t="s">
         <v>274</v>
       </c>
       <c r="H36" s="9">
@@ -5465,23 +5463,23 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="23">
         <v>6</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="23" t="s">
         <v>273</v>
       </c>
       <c r="H37" s="9">
@@ -5504,23 +5502,23 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="9">
         <v>0</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="23">
         <v>7</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="27" t="s">
         <v>275</v>
       </c>
       <c r="H38" s="9">
@@ -5587,12 +5585,12 @@
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
